--- a/output/ner/annotated/PMC7384185.xlsx
+++ b/output/ner/annotated/PMC7384185.xlsx
@@ -5824,235 +5824,231 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>plant_traits</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>betacyanin pigmentation</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>26297</v>
+        <v>26229</v>
       </c>
       <c r="D249" t="n">
-        <v>26304</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>26252</v>
+      </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>26406</v>
+        <v>26297</v>
       </c>
       <c r="D250" t="n">
-        <v>26418</v>
-      </c>
-      <c r="E250" t="inlineStr"/>
+        <v>26304</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>26453</v>
+        <v>26406</v>
       </c>
       <c r="D251" t="n">
-        <v>26461</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>26418</v>
+      </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>26494</v>
+        <v>26453</v>
       </c>
       <c r="D252" t="n">
-        <v>26498</v>
-      </c>
-      <c r="E252" t="inlineStr"/>
+        <v>26461</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>nicotiana benthamiana</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>26555</v>
+        <v>26494</v>
       </c>
       <c r="D253" t="n">
-        <v>26576</v>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>4100</t>
-        </is>
-      </c>
+        <v>26498</v>
+      </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>nicotiana benthamiana</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>26587</v>
+        <v>26555</v>
       </c>
       <c r="D254" t="n">
-        <v>26591</v>
-      </c>
-      <c r="E254" t="inlineStr"/>
+        <v>26576</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>anatomical_structures</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>26648</v>
+        <v>26587</v>
       </c>
       <c r="D255" t="n">
-        <v>26652</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>PO:0009025</t>
-        </is>
-      </c>
+        <v>26591</v>
+      </c>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>experimental_conditions</t>
+          <t>anatomical_structures</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>agroinfiltration</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>26671</v>
+        <v>26648</v>
       </c>
       <c r="D256" t="n">
-        <v>26687</v>
-      </c>
-      <c r="E256" t="inlineStr"/>
+        <v>26652</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>PO:0009025</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>experimental_conditions</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>agroinfiltration</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>26691</v>
+        <v>26671</v>
       </c>
       <c r="D257" t="n">
-        <v>26697</v>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>26687</v>
+      </c>
+      <c r="E257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>26715</v>
+        <v>26691</v>
       </c>
       <c r="D258" t="n">
-        <v>26719</v>
-      </c>
-      <c r="E258" t="inlineStr"/>
+        <v>26697</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>stegnosperma halimifolium</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>26732</v>
+        <v>26715</v>
       </c>
       <c r="D259" t="n">
-        <v>26757</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>3535</t>
-        </is>
-      </c>
+        <v>26719</v>
+      </c>
+      <c r="E259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6062,18 +6058,18 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>beta vulgaris</t>
+          <t>stegnosperma halimifolium</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>26759</v>
+        <v>26732</v>
       </c>
       <c r="D260" t="n">
-        <v>26772</v>
+        <v>26757</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>161934</t>
+          <t>3535</t>
         </is>
       </c>
     </row>
@@ -6085,18 +6081,18 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>carnegiea gigantea</t>
+          <t>beta vulgaris</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>26774</v>
+        <v>26759</v>
       </c>
       <c r="D261" t="n">
-        <v>26792</v>
+        <v>26772</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>171969</t>
+          <t>161934</t>
         </is>
       </c>
     </row>
@@ -6108,81 +6104,85 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>mesembryanthemum crystallinum</t>
+          <t>carnegiea gigantea</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>26797</v>
+        <v>26774</v>
       </c>
       <c r="D262" t="n">
-        <v>26826</v>
+        <v>26792</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>171969</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>mesembryanthemum crystallinum</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>26832</v>
+        <v>26797</v>
       </c>
       <c r="D263" t="n">
-        <v>26836</v>
-      </c>
-      <c r="E263" t="inlineStr"/>
+        <v>26826</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>betacyanin</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>26944</v>
+        <v>26832</v>
       </c>
       <c r="D264" t="n">
-        <v>26954</v>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001434</t>
-        </is>
-      </c>
+        <v>26836</v>
+      </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>bvcyp76ad1</t>
+          <t>betacyanin</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>26967</v>
+        <v>26944</v>
       </c>
       <c r="D265" t="n">
-        <v>26977</v>
-      </c>
-      <c r="E265" t="inlineStr"/>
+        <v>26954</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001434</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6192,14 +6192,14 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>mjcdopa-5gt</t>
+          <t>bvcyp76ad1</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>26979</v>
+        <v>26967</v>
       </c>
       <c r="D266" t="n">
-        <v>26990</v>
+        <v>26977</v>
       </c>
       <c r="E266" t="inlineStr"/>
     </row>
@@ -6211,14 +6211,14 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>mjcdopa-5gt</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>27046</v>
+        <v>26979</v>
       </c>
       <c r="D267" t="n">
-        <v>27050</v>
+        <v>26990</v>
       </c>
       <c r="E267" t="inlineStr"/>
     </row>
@@ -6230,81 +6230,77 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>27085</v>
+        <v>27046</v>
       </c>
       <c r="D268" t="n">
-        <v>27097</v>
+        <v>27050</v>
       </c>
       <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>27162</v>
+        <v>27085</v>
       </c>
       <c r="D269" t="n">
-        <v>27169</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>27097</v>
+      </c>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>27270</v>
+        <v>27162</v>
       </c>
       <c r="D270" t="n">
-        <v>27282</v>
-      </c>
-      <c r="E270" t="inlineStr"/>
+        <v>27169</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>s. halimifolium</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>27522</v>
+        <v>27270</v>
       </c>
       <c r="D271" t="n">
-        <v>27537</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>3535</t>
-        </is>
-      </c>
+        <v>27282</v>
+      </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6314,18 +6310,18 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>b. vulgaris</t>
+          <t>s. halimifolium</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>27539</v>
+        <v>27522</v>
       </c>
       <c r="D272" t="n">
-        <v>27550</v>
+        <v>27537</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>161934</t>
+          <t>3535</t>
         </is>
       </c>
     </row>
@@ -6337,18 +6333,18 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>c. gigantea</t>
+          <t>b. vulgaris</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>27552</v>
+        <v>27539</v>
       </c>
       <c r="D273" t="n">
-        <v>27563</v>
+        <v>27550</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>171969</t>
+          <t>161934</t>
         </is>
       </c>
     </row>
@@ -6360,39 +6356,43 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>c. gigantea</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>27568</v>
+        <v>27552</v>
       </c>
       <c r="D274" t="n">
-        <v>27583</v>
+        <v>27563</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>171969</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>bvdodaalpha2</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>27596</v>
+        <v>27568</v>
       </c>
       <c r="D275" t="n">
-        <v>27608</v>
-      </c>
-      <c r="E275" t="inlineStr"/>
+        <v>27583</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6402,14 +6402,14 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BvDODAalpha3</t>
+          <t>bvdodaalpha2</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>27621</v>
+        <v>27596</v>
       </c>
       <c r="D276" t="n">
-        <v>27633</v>
+        <v>27608</v>
       </c>
       <c r="E276" t="inlineStr"/>
     </row>
@@ -6421,39 +6421,35 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>BvDODAalpha3</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>27683</v>
+        <v>27621</v>
       </c>
       <c r="D277" t="n">
-        <v>27687</v>
+        <v>27633</v>
       </c>
       <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>27737</v>
+        <v>27683</v>
       </c>
       <c r="D278" t="n">
-        <v>27744</v>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>27687</v>
+      </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6463,127 +6459,131 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>isobetanin</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>27779</v>
+        <v>27737</v>
       </c>
       <c r="D279" t="n">
-        <v>27789</v>
+        <v>27744</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>57505033</t>
+          <t>6540685</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>firefly luciferase</t>
+          <t>isobetanin</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>27881</v>
+        <v>27779</v>
       </c>
       <c r="D280" t="n">
-        <v>27899</v>
-      </c>
-      <c r="E280" t="inlineStr"/>
+        <v>27789</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>57505033</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>firefly luciferase</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>27910</v>
+        <v>27881</v>
       </c>
       <c r="D281" t="n">
-        <v>27917</v>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>27899</v>
+      </c>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>anatomical_structures</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>hypocotyl</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>27965</v>
+        <v>27910</v>
       </c>
       <c r="D282" t="n">
-        <v>27974</v>
+        <v>27917</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>PO:0020100</t>
+          <t>6540685</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>anatomical_structures</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>hypocotyl</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>28024</v>
+        <v>27965</v>
       </c>
       <c r="D283" t="n">
-        <v>28031</v>
+        <v>27974</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>6540685</t>
+          <t>PO:0020100</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>dodabeta</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>28242</v>
+        <v>28024</v>
       </c>
       <c r="D284" t="n">
-        <v>28250</v>
-      </c>
-      <c r="E284" t="inlineStr"/>
+        <v>28031</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6593,211 +6593,211 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>dodabeta</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>28288</v>
+        <v>28242</v>
       </c>
       <c r="D285" t="n">
-        <v>28297</v>
+        <v>28250</v>
       </c>
       <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>28352</v>
+        <v>28288</v>
       </c>
       <c r="D286" t="n">
-        <v>28360</v>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>28297</v>
+      </c>
+      <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>plant_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>betalain pigmentation</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C287" t="n">
         <v>28352</v>
       </c>
       <c r="D287" t="n">
-        <v>28373</v>
+        <v>28360</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>TO:0000494</t>
+          <t>CHEMONTID:0001435</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>plant_traits</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>betalain pigmentation</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>28384</v>
+        <v>28352</v>
       </c>
       <c r="D288" t="n">
-        <v>28396</v>
-      </c>
-      <c r="E288" t="inlineStr"/>
+        <v>28373</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>TO:0000494</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>28460</v>
+        <v>28384</v>
       </c>
       <c r="D289" t="n">
-        <v>28467</v>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>28396</v>
+      </c>
+      <c r="E289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>experimental_conditions</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>heterologous assay</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>28475</v>
+        <v>28460</v>
       </c>
       <c r="D290" t="n">
-        <v>28493</v>
-      </c>
-      <c r="E290" t="inlineStr"/>
+        <v>28467</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>experimental_conditions</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>heterologous assay</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>28534</v>
+        <v>28475</v>
       </c>
       <c r="D291" t="n">
-        <v>28540</v>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>28493</v>
+      </c>
+      <c r="E291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>28534</v>
       </c>
       <c r="D292" t="n">
-        <v>28565</v>
+        <v>28540</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>28611</v>
+        <v>28534</v>
       </c>
       <c r="D293" t="n">
-        <v>28618</v>
+        <v>28565</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>6540685</t>
+          <t>GO:0051213</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>dodaalpha1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>28660</v>
+        <v>28611</v>
       </c>
       <c r="D294" t="n">
-        <v>28670</v>
-      </c>
-      <c r="E294" t="inlineStr"/>
+        <v>28618</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6807,14 +6807,14 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>dodaalpha1</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>28690</v>
+        <v>28660</v>
       </c>
       <c r="D295" t="n">
-        <v>28702</v>
+        <v>28670</v>
       </c>
       <c r="E295" t="inlineStr"/>
     </row>
@@ -6826,39 +6826,35 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>28775</v>
+        <v>28690</v>
       </c>
       <c r="D296" t="n">
-        <v>28784</v>
+        <v>28702</v>
       </c>
       <c r="E296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>28804</v>
+        <v>28775</v>
       </c>
       <c r="D297" t="n">
-        <v>28810</v>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>28784</v>
+      </c>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6868,39 +6864,43 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>betalamic acid</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>28814</v>
+        <v>28804</v>
       </c>
       <c r="D298" t="n">
-        <v>28828</v>
+        <v>28810</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>5281176</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>shdodaalpha1</t>
+          <t>betalamic acid</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>28853</v>
+        <v>28814</v>
       </c>
       <c r="D299" t="n">
-        <v>28865</v>
-      </c>
-      <c r="E299" t="inlineStr"/>
+        <v>28828</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>5281176</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6910,14 +6910,14 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>shdodaalpha1</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>28909</v>
+        <v>28853</v>
       </c>
       <c r="D300" t="n">
-        <v>28921</v>
+        <v>28865</v>
       </c>
       <c r="E300" t="inlineStr"/>
     </row>
@@ -6929,14 +6929,14 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>cgdodaalpha1</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>28923</v>
+        <v>28909</v>
       </c>
       <c r="D301" t="n">
-        <v>28935</v>
+        <v>28921</v>
       </c>
       <c r="E301" t="inlineStr"/>
     </row>
@@ -6948,14 +6948,14 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>cgdodaalpha1</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>28963</v>
+        <v>28923</v>
       </c>
       <c r="D302" t="n">
-        <v>28975</v>
+        <v>28935</v>
       </c>
       <c r="E302" t="inlineStr"/>
     </row>
@@ -6967,14 +6967,14 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>mcdodaalpha1</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>28981</v>
+        <v>28963</v>
       </c>
       <c r="D303" t="n">
-        <v>28993</v>
+        <v>28975</v>
       </c>
       <c r="E303" t="inlineStr"/>
     </row>
@@ -6986,100 +6986,100 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>mcdodaalpha1</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>29020</v>
+        <v>28981</v>
       </c>
       <c r="D304" t="n">
-        <v>29032</v>
+        <v>28993</v>
       </c>
       <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>29212</v>
+        <v>29020</v>
       </c>
       <c r="D305" t="n">
-        <v>29220</v>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>29032</v>
+      </c>
+      <c r="E305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>29261</v>
+        <v>29212</v>
       </c>
       <c r="D306" t="n">
-        <v>29270</v>
-      </c>
-      <c r="E306" t="inlineStr"/>
+        <v>29220</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>29389</v>
+        <v>29261</v>
       </c>
       <c r="D307" t="n">
-        <v>29404</v>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>3544</t>
-        </is>
-      </c>
+        <v>29270</v>
+      </c>
+      <c r="E307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>McDODAalpha2</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>29441</v>
+        <v>29389</v>
       </c>
       <c r="D308" t="n">
-        <v>29453</v>
-      </c>
-      <c r="E308" t="inlineStr"/>
+        <v>29404</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7089,81 +7089,81 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>dodaalpha1</t>
+          <t>McDODAalpha2</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>29489</v>
+        <v>29441</v>
       </c>
       <c r="D309" t="n">
-        <v>29499</v>
+        <v>29453</v>
       </c>
       <c r="E309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>dodaalpha1</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>29505</v>
+        <v>29489</v>
       </c>
       <c r="D310" t="n">
-        <v>29520</v>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>3544</t>
-        </is>
-      </c>
+        <v>29499</v>
+      </c>
+      <c r="E310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>anatomical_structures</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>leaves</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>29627</v>
+        <v>29505</v>
       </c>
       <c r="D311" t="n">
-        <v>29633</v>
+        <v>29520</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>PO:0009025</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>anatomical_structures</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>bvdodaalpha2</t>
+          <t>leaves</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>29681</v>
+        <v>29627</v>
       </c>
       <c r="D312" t="n">
-        <v>29693</v>
-      </c>
-      <c r="E312" t="inlineStr"/>
+        <v>29633</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>PO:0009025</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7173,39 +7173,35 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CgDODAalpha2</t>
+          <t>bvdodaalpha2</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>29698</v>
+        <v>29681</v>
       </c>
       <c r="D313" t="n">
-        <v>29710</v>
+        <v>29693</v>
       </c>
       <c r="E313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>b. vulgaris</t>
+          <t>CgDODAalpha2</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>29717</v>
+        <v>29698</v>
       </c>
       <c r="D314" t="n">
-        <v>29728</v>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>161934</t>
-        </is>
-      </c>
+        <v>29710</v>
+      </c>
+      <c r="E314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7215,104 +7211,108 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>c. gigantea</t>
+          <t>b. vulgaris</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>29733</v>
+        <v>29717</v>
       </c>
       <c r="D315" t="n">
-        <v>29744</v>
+        <v>29728</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>171969</t>
+          <t>161934</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>c. gigantea</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>29787</v>
+        <v>29733</v>
       </c>
       <c r="D316" t="n">
-        <v>29794</v>
+        <v>29744</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>6540685</t>
+          <t>171969</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>McDODAalpha2</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>29835</v>
+        <v>29787</v>
       </c>
       <c r="D317" t="n">
-        <v>29847</v>
-      </c>
-      <c r="E317" t="inlineStr"/>
+        <v>29794</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>McDODAalpha2</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>29877</v>
+        <v>29835</v>
       </c>
       <c r="D318" t="n">
-        <v>29884</v>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>29847</v>
+      </c>
+      <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>29888</v>
+        <v>29877</v>
       </c>
       <c r="D319" t="n">
-        <v>29900</v>
-      </c>
-      <c r="E319" t="inlineStr"/>
+        <v>29884</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7322,14 +7322,14 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>bvdodaalpha2</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>29910</v>
+        <v>29888</v>
       </c>
       <c r="D320" t="n">
-        <v>29922</v>
+        <v>29900</v>
       </c>
       <c r="E320" t="inlineStr"/>
     </row>
@@ -7341,14 +7341,14 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>CgDODAalpha2</t>
+          <t>bvdodaalpha2</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>29927</v>
+        <v>29910</v>
       </c>
       <c r="D321" t="n">
-        <v>29939</v>
+        <v>29922</v>
       </c>
       <c r="E321" t="inlineStr"/>
     </row>
@@ -7360,58 +7360,58 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>CgDODAalpha2</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>29970</v>
+        <v>29927</v>
       </c>
       <c r="D322" t="n">
-        <v>29982</v>
+        <v>29939</v>
       </c>
       <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>30039</v>
+        <v>29970</v>
       </c>
       <c r="D323" t="n">
-        <v>30046</v>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>29982</v>
+      </c>
+      <c r="E323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ShDODAalpha2</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>30081</v>
+        <v>30039</v>
       </c>
       <c r="D324" t="n">
-        <v>30093</v>
-      </c>
-      <c r="E324" t="inlineStr"/>
+        <v>30046</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7421,58 +7421,58 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>BvDODAalpha4</t>
+          <t>ShDODAalpha2</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>30098</v>
+        <v>30081</v>
       </c>
       <c r="D325" t="n">
-        <v>30110</v>
+        <v>30093</v>
       </c>
       <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>b. vulgaris</t>
+          <t>BvDODAalpha4</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>30138</v>
+        <v>30098</v>
       </c>
       <c r="D326" t="n">
-        <v>30149</v>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>161934</t>
-        </is>
-      </c>
+        <v>30110</v>
+      </c>
+      <c r="E326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>BvDODAalpha3</t>
+          <t>b. vulgaris</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>30162</v>
+        <v>30138</v>
       </c>
       <c r="D327" t="n">
-        <v>30174</v>
-      </c>
-      <c r="E327" t="inlineStr"/>
+        <v>30149</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>161934</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7482,81 +7482,77 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>BvDODAalpha5</t>
+          <t>BvDODAalpha3</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>30179</v>
+        <v>30162</v>
       </c>
       <c r="D328" t="n">
-        <v>30191</v>
+        <v>30174</v>
       </c>
       <c r="E328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>BvDODAalpha5</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>30193</v>
+        <v>30179</v>
       </c>
       <c r="D329" t="n">
-        <v>30200</v>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>30191</v>
+      </c>
+      <c r="E329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>30233</v>
+        <v>30193</v>
       </c>
       <c r="D330" t="n">
-        <v>30242</v>
-      </c>
-      <c r="E330" t="inlineStr"/>
+        <v>30200</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>m. australis</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>30276</v>
+        <v>30233</v>
       </c>
       <c r="D331" t="n">
-        <v>30288</v>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>764202</t>
-        </is>
-      </c>
+        <v>30242</v>
+      </c>
+      <c r="E331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7566,62 +7562,66 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>k. caespitosa</t>
+          <t>m. australis</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>30293</v>
+        <v>30276</v>
       </c>
       <c r="D332" t="n">
-        <v>30306</v>
+        <v>30288</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>2086541</t>
+          <t>764202</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>k. caespitosa</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>30352</v>
+        <v>30293</v>
       </c>
       <c r="D333" t="n">
-        <v>30359</v>
+        <v>30306</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>6540685</t>
+          <t>2086541</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>30439</v>
+        <v>30352</v>
       </c>
       <c r="D334" t="n">
-        <v>30451</v>
-      </c>
-      <c r="E334" t="inlineStr"/>
+        <v>30359</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7631,14 +7631,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>KcDODAalpha1</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>30457</v>
+        <v>30439</v>
       </c>
       <c r="D335" t="n">
-        <v>30469</v>
+        <v>30451</v>
       </c>
       <c r="E335" t="inlineStr"/>
     </row>
@@ -7650,14 +7650,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>KcDODAalpha2</t>
+          <t>KcDODAalpha1</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>30474</v>
+        <v>30457</v>
       </c>
       <c r="D336" t="n">
-        <v>30486</v>
+        <v>30469</v>
       </c>
       <c r="E336" t="inlineStr"/>
     </row>
@@ -7669,14 +7669,14 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>KcDODAalpha2</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>30512</v>
+        <v>30474</v>
       </c>
       <c r="D337" t="n">
-        <v>30524</v>
+        <v>30486</v>
       </c>
       <c r="E337" t="inlineStr"/>
     </row>
@@ -7688,39 +7688,35 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>30564</v>
+        <v>30512</v>
       </c>
       <c r="D338" t="n">
-        <v>30573</v>
+        <v>30524</v>
       </c>
       <c r="E338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>c. ramosissimum</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>30579</v>
+        <v>30564</v>
       </c>
       <c r="D339" t="n">
-        <v>30594</v>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>308177</t>
-        </is>
-      </c>
+        <v>30573</v>
+      </c>
+      <c r="E339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7730,280 +7726,280 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>t. imperati</t>
+          <t>c. ramosissimum</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>30599</v>
+        <v>30579</v>
       </c>
       <c r="D340" t="n">
-        <v>30610</v>
+        <v>30594</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>645216</t>
+          <t>308177</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>t. imperati</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>30638</v>
+        <v>30599</v>
       </c>
       <c r="D341" t="n">
-        <v>30645</v>
+        <v>30610</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>6540685</t>
+          <t>645216</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>30662</v>
+        <v>30638</v>
       </c>
       <c r="D342" t="n">
-        <v>30674</v>
-      </c>
-      <c r="E342" t="inlineStr"/>
+        <v>30645</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>30708</v>
+        <v>30662</v>
       </c>
       <c r="D343" t="n">
-        <v>30714</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>30674</v>
+      </c>
+      <c r="E343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>30708</v>
       </c>
       <c r="D344" t="n">
-        <v>30739</v>
+        <v>30714</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>30765</v>
+        <v>30708</v>
       </c>
       <c r="D345" t="n">
-        <v>30769</v>
-      </c>
-      <c r="E345" t="inlineStr"/>
+        <v>30739</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>GO:0051213</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>anthocyanin</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>30775</v>
+        <v>30765</v>
       </c>
       <c r="D346" t="n">
-        <v>30786</v>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001361</t>
-        </is>
-      </c>
+        <v>30769</v>
+      </c>
+      <c r="E346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>nicotiana benthamiana</t>
+          <t>anthocyanin</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>30835</v>
+        <v>30775</v>
       </c>
       <c r="D347" t="n">
-        <v>30856</v>
+        <v>30786</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>CHEMONTID:0001361</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>anatomical_structures</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>nicotiana benthamiana</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>30879</v>
+        <v>30835</v>
       </c>
       <c r="D348" t="n">
-        <v>30883</v>
+        <v>30856</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>PO:0009025</t>
+          <t>4100</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>experimental_conditions</t>
+          <t>anatomical_structures</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>agroinfiltration</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>30902</v>
+        <v>30879</v>
       </c>
       <c r="D349" t="n">
-        <v>30918</v>
-      </c>
-      <c r="E349" t="inlineStr"/>
+        <v>30883</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>PO:0009025</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>experimental_conditions</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>agroinfiltration</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>30922</v>
+        <v>30902</v>
       </c>
       <c r="D350" t="n">
-        <v>30928</v>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>30918</v>
+      </c>
+      <c r="E350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>30946</v>
+        <v>30922</v>
       </c>
       <c r="D351" t="n">
-        <v>30950</v>
-      </c>
-      <c r="E351" t="inlineStr"/>
+        <v>30928</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Macarthuria australis</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>30963</v>
+        <v>30946</v>
       </c>
       <c r="D352" t="n">
-        <v>30984</v>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>764202</t>
-        </is>
-      </c>
+        <v>30950</v>
+      </c>
+      <c r="E352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8013,18 +8009,18 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Telephium imperati</t>
+          <t>Macarthuria australis</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>31001</v>
+        <v>30963</v>
       </c>
       <c r="D353" t="n">
-        <v>31019</v>
+        <v>30984</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>645216</t>
+          <t>764202</t>
         </is>
       </c>
     </row>
@@ -8036,18 +8032,18 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Polycarpon tetraphyllum</t>
+          <t>Telephium imperati</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>31036</v>
+        <v>31001</v>
       </c>
       <c r="D354" t="n">
-        <v>31059</v>
+        <v>31019</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>115622</t>
+          <t>645216</t>
         </is>
       </c>
     </row>
@@ -8059,18 +8055,18 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cardionema ramosissimum</t>
+          <t>Polycarpon tetraphyllum</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>31076</v>
+        <v>31036</v>
       </c>
       <c r="D355" t="n">
-        <v>31099</v>
+        <v>31059</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>308177</t>
+          <t>115622</t>
         </is>
       </c>
     </row>
@@ -8082,18 +8078,18 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Spergularia marina</t>
+          <t>Cardionema ramosissimum</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>31116</v>
+        <v>31076</v>
       </c>
       <c r="D356" t="n">
-        <v>31134</v>
+        <v>31099</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>191669</t>
+          <t>308177</t>
         </is>
       </c>
     </row>
@@ -8105,18 +8101,18 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Limeum aethiopicum</t>
+          <t>Spergularia marina</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>31151</v>
+        <v>31116</v>
       </c>
       <c r="D357" t="n">
-        <v>31169</v>
+        <v>31134</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>115627</t>
+          <t>191669</t>
         </is>
       </c>
     </row>
@@ -8128,81 +8124,85 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Kewa caespitosa</t>
+          <t>Limeum aethiopicum</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>31189</v>
+        <v>31151</v>
       </c>
       <c r="D358" t="n">
-        <v>31204</v>
+        <v>31169</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>2086541</t>
+          <t>115627</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>Kewa caespitosa</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>31243</v>
+        <v>31189</v>
       </c>
       <c r="D359" t="n">
-        <v>31247</v>
-      </c>
-      <c r="E359" t="inlineStr"/>
+        <v>31204</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>2086541</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>betacyanin</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>31349</v>
+        <v>31243</v>
       </c>
       <c r="D360" t="n">
-        <v>31359</v>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001434</t>
-        </is>
-      </c>
+        <v>31247</v>
+      </c>
+      <c r="E360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>bvcyp76ad1</t>
+          <t>betacyanin</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>31372</v>
+        <v>31349</v>
       </c>
       <c r="D361" t="n">
-        <v>31382</v>
-      </c>
-      <c r="E361" t="inlineStr"/>
+        <v>31359</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001434</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8212,14 +8212,14 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>mjcdopa-5gt</t>
+          <t>bvcyp76ad1</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>31384</v>
+        <v>31372</v>
       </c>
       <c r="D362" t="n">
-        <v>31395</v>
+        <v>31382</v>
       </c>
       <c r="E362" t="inlineStr"/>
     </row>
@@ -8231,39 +8231,35 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>mjcdopa-5gt</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>31406</v>
+        <v>31384</v>
       </c>
       <c r="D363" t="n">
-        <v>31418</v>
+        <v>31395</v>
       </c>
       <c r="E363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>31480</v>
+        <v>31406</v>
       </c>
       <c r="D364" t="n">
-        <v>31487</v>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>31418</v>
+      </c>
+      <c r="E364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8277,10 +8273,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>31558</v>
+        <v>31480</v>
       </c>
       <c r="D365" t="n">
-        <v>31565</v>
+        <v>31487</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -8300,10 +8296,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>31621</v>
+        <v>31558</v>
       </c>
       <c r="D366" t="n">
-        <v>31628</v>
+        <v>31565</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -8314,21 +8310,25 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>31640</v>
+        <v>31621</v>
       </c>
       <c r="D367" t="n">
-        <v>31652</v>
-      </c>
-      <c r="E367" t="inlineStr"/>
+        <v>31628</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -8338,39 +8338,35 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>31863</v>
+        <v>31640</v>
       </c>
       <c r="D368" t="n">
-        <v>31867</v>
+        <v>31652</v>
       </c>
       <c r="E368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>31924</v>
+        <v>31863</v>
       </c>
       <c r="D369" t="n">
-        <v>31931</v>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>31867</v>
+      </c>
+      <c r="E369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -8380,127 +8376,131 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>isobetanin</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>31966</v>
+        <v>31924</v>
       </c>
       <c r="D370" t="n">
-        <v>31976</v>
+        <v>31931</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>57505033</t>
+          <t>6540685</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>firefly luciferase</t>
+          <t>isobetanin</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>32068</v>
+        <v>31966</v>
       </c>
       <c r="D371" t="n">
-        <v>32086</v>
-      </c>
-      <c r="E371" t="inlineStr"/>
+        <v>31976</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>57505033</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>firefly luciferase</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>32097</v>
+        <v>32068</v>
       </c>
       <c r="D372" t="n">
-        <v>32104</v>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>6540685</t>
-        </is>
-      </c>
+        <v>32086</v>
+      </c>
+      <c r="E372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>anatomical_structures</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>hypocotyl</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>32152</v>
+        <v>32097</v>
       </c>
       <c r="D373" t="n">
-        <v>32161</v>
+        <v>32104</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>PO:0020100</t>
+          <t>6540685</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>anatomical_structures</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>hypocotyl</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>32212</v>
+        <v>32152</v>
       </c>
       <c r="D374" t="n">
-        <v>32219</v>
+        <v>32161</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>6540685</t>
+          <t>PO:0020100</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>bvcyp76ad1</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>32419</v>
+        <v>32212</v>
       </c>
       <c r="D375" t="n">
-        <v>32429</v>
-      </c>
-      <c r="E375" t="inlineStr"/>
+        <v>32219</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -8510,39 +8510,35 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>MYB</t>
+          <t>bvcyp76ad1</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>32547</v>
+        <v>32419</v>
       </c>
       <c r="D376" t="n">
-        <v>32550</v>
+        <v>32429</v>
       </c>
       <c r="E376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>C. quinoa</t>
+          <t>MYB</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>32679</v>
+        <v>32547</v>
       </c>
       <c r="D377" t="n">
-        <v>32688</v>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>63459</t>
-        </is>
-      </c>
+        <v>32550</v>
+      </c>
+      <c r="E377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -8552,18 +8548,18 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>A. hypochondriacus</t>
+          <t>C. quinoa</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>32693</v>
+        <v>32679</v>
       </c>
       <c r="D378" t="n">
-        <v>32711</v>
+        <v>32688</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>28502</t>
+          <t>63459</t>
         </is>
       </c>
     </row>
@@ -8575,39 +8571,43 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>A. hypochondriacus</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>32889</v>
+        <v>32693</v>
       </c>
       <c r="D379" t="n">
-        <v>32904</v>
+        <v>32711</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>28502</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>32967</v>
+        <v>32889</v>
       </c>
       <c r="D380" t="n">
-        <v>32976</v>
-      </c>
-      <c r="E380" t="inlineStr"/>
+        <v>32904</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -8617,14 +8617,14 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>McDODA alpha 1</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>32978</v>
+        <v>32967</v>
       </c>
       <c r="D381" t="n">
-        <v>32992</v>
+        <v>32976</v>
       </c>
       <c r="E381" t="inlineStr"/>
     </row>
@@ -8636,39 +8636,35 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>McCYP76AD1</t>
+          <t>McDODA alpha 1</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>33040</v>
+        <v>32978</v>
       </c>
       <c r="D382" t="n">
-        <v>33050</v>
+        <v>32992</v>
       </c>
       <c r="E382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>McCYP76AD1</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>33238</v>
+        <v>33040</v>
       </c>
       <c r="D383" t="n">
-        <v>33246</v>
-      </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>33050</v>
+      </c>
+      <c r="E383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -8682,10 +8678,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>33404</v>
+        <v>33238</v>
       </c>
       <c r="D384" t="n">
-        <v>33412</v>
+        <v>33246</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -8696,90 +8692,94 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>pathways</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>betalain biosynthesis</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>33404</v>
       </c>
       <c r="D385" t="n">
-        <v>33425</v>
+        <v>33412</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>PWY-5405</t>
+          <t>CHEMONTID:0001435</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>pathways</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>mesembryanthemum crystallinum</t>
+          <t>betalain biosynthesis</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>33528</v>
+        <v>33404</v>
       </c>
       <c r="D386" t="n">
-        <v>33557</v>
+        <v>33425</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>PWY-5405</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>mesembryanthemum crystallinum</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>33604</v>
+        <v>33528</v>
       </c>
       <c r="D387" t="n">
-        <v>33612</v>
+        <v>33557</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>CHEMONTID:0001435</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>33633</v>
+        <v>33604</v>
       </c>
       <c r="D388" t="n">
-        <v>33637</v>
-      </c>
-      <c r="E388" t="inlineStr"/>
+        <v>33612</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8789,33 +8789,33 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>CYP76AD1</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>33650</v>
+        <v>33633</v>
       </c>
       <c r="D389" t="n">
-        <v>33658</v>
+        <v>33637</v>
       </c>
       <c r="E389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Amaranthus hypochondriacus</t>
+          <t>CYP76AD1</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>33665</v>
+        <v>33650</v>
       </c>
       <c r="D390" t="n">
-        <v>33691</v>
+        <v>33658</v>
       </c>
       <c r="E390" t="inlineStr"/>
     </row>
@@ -8827,20 +8827,16 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>beta vulgaris</t>
+          <t>Amaranthus hypochondriacus</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>33693</v>
+        <v>33665</v>
       </c>
       <c r="D391" t="n">
-        <v>33706</v>
-      </c>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>161934</t>
-        </is>
-      </c>
+        <v>33691</v>
+      </c>
+      <c r="E391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -8850,18 +8846,18 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chenopodium quinoa</t>
+          <t>beta vulgaris</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>33708</v>
+        <v>33693</v>
       </c>
       <c r="D392" t="n">
-        <v>33726</v>
+        <v>33706</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>63459</t>
+          <t>161934</t>
         </is>
       </c>
     </row>
@@ -8873,39 +8869,43 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>Chenopodium quinoa</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>33731</v>
+        <v>33708</v>
       </c>
       <c r="D393" t="n">
-        <v>33746</v>
+        <v>33726</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>63459</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>33963</v>
+        <v>33731</v>
       </c>
       <c r="D394" t="n">
-        <v>33967</v>
-      </c>
-      <c r="E394" t="inlineStr"/>
+        <v>33746</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -8915,58 +8915,58 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>CYP76AD1</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>33980</v>
+        <v>33963</v>
       </c>
       <c r="D395" t="n">
-        <v>33988</v>
+        <v>33967</v>
       </c>
       <c r="E395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>CYP76AD1</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>34198</v>
+        <v>33980</v>
       </c>
       <c r="D396" t="n">
-        <v>34204</v>
-      </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>33988</v>
+      </c>
+      <c r="E396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>34267</v>
+        <v>34198</v>
       </c>
       <c r="D397" t="n">
-        <v>34271</v>
-      </c>
-      <c r="E397" t="inlineStr"/>
+        <v>34204</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -8980,29 +8980,29 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>34347</v>
+        <v>34267</v>
       </c>
       <c r="D398" t="n">
-        <v>34351</v>
+        <v>34271</v>
       </c>
       <c r="E398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>experimental_conditions</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>heterologous transient assays</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>34398</v>
+        <v>34347</v>
       </c>
       <c r="D399" t="n">
-        <v>34427</v>
+        <v>34351</v>
       </c>
       <c r="E399" t="inlineStr"/>
     </row>
@@ -9014,142 +9014,142 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>stable transgenics</t>
+          <t>heterologous transient assays</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>34431</v>
+        <v>34398</v>
       </c>
       <c r="D400" t="n">
-        <v>34449</v>
+        <v>34427</v>
       </c>
       <c r="E400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>experimental_conditions</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>stable transgenics</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>34588</v>
+        <v>34431</v>
       </c>
       <c r="D401" t="n">
-        <v>34597</v>
+        <v>34449</v>
       </c>
       <c r="E401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>34620</v>
+        <v>34588</v>
       </c>
       <c r="D402" t="n">
-        <v>34626</v>
-      </c>
-      <c r="E402" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>34597</v>
+      </c>
+      <c r="E402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>34694</v>
+        <v>34620</v>
       </c>
       <c r="D403" t="n">
-        <v>34698</v>
-      </c>
-      <c r="E403" t="inlineStr"/>
+        <v>34626</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>34798</v>
+        <v>34694</v>
       </c>
       <c r="D404" t="n">
-        <v>34804</v>
-      </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>34698</v>
+      </c>
+      <c r="E404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C405" t="n">
         <v>34798</v>
       </c>
       <c r="D405" t="n">
-        <v>34829</v>
+        <v>34804</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>dodaalpha1</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>34831</v>
+        <v>34798</v>
       </c>
       <c r="D406" t="n">
-        <v>34841</v>
-      </c>
-      <c r="E406" t="inlineStr"/>
+        <v>34829</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>GO:0051213</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -9159,14 +9159,14 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>shdodaalpha1</t>
+          <t>dodaalpha1</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>34901</v>
+        <v>34831</v>
       </c>
       <c r="D407" t="n">
-        <v>34913</v>
+        <v>34841</v>
       </c>
       <c r="E407" t="inlineStr"/>
     </row>
@@ -9178,14 +9178,14 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>shdodaalpha1</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>34978</v>
+        <v>34901</v>
       </c>
       <c r="D408" t="n">
-        <v>34990</v>
+        <v>34913</v>
       </c>
       <c r="E408" t="inlineStr"/>
     </row>
@@ -9197,58 +9197,58 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>CqDODA-1</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>34995</v>
+        <v>34978</v>
       </c>
       <c r="D409" t="n">
-        <v>35003</v>
+        <v>34990</v>
       </c>
       <c r="E409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>CqDODA-1</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>35044</v>
+        <v>34995</v>
       </c>
       <c r="D410" t="n">
-        <v>35052</v>
-      </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>35003</v>
+      </c>
+      <c r="E410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>CgDODA1</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>35088</v>
+        <v>35044</v>
       </c>
       <c r="D411" t="n">
-        <v>35095</v>
-      </c>
-      <c r="E411" t="inlineStr"/>
+        <v>35052</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -9258,14 +9258,14 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>MjDODA alpha 1</t>
+          <t>CgDODA1</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>35097</v>
+        <v>35088</v>
       </c>
       <c r="D412" t="n">
-        <v>35111</v>
+        <v>35095</v>
       </c>
       <c r="E412" t="inlineStr"/>
     </row>
@@ -9277,14 +9277,14 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>McDODA alpha 1</t>
+          <t>MjDODA alpha 1</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>35113</v>
+        <v>35097</v>
       </c>
       <c r="D413" t="n">
-        <v>35127</v>
+        <v>35111</v>
       </c>
       <c r="E413" t="inlineStr"/>
     </row>
@@ -9296,14 +9296,14 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>PmDOD</t>
+          <t>McDODA alpha 1</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>35129</v>
+        <v>35113</v>
       </c>
       <c r="D414" t="n">
-        <v>35134</v>
+        <v>35127</v>
       </c>
       <c r="E414" t="inlineStr"/>
     </row>
@@ -9315,14 +9315,14 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>PgDODA</t>
+          <t>PmDOD</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>35139</v>
+        <v>35129</v>
       </c>
       <c r="D415" t="n">
-        <v>35145</v>
+        <v>35134</v>
       </c>
       <c r="E415" t="inlineStr"/>
     </row>
@@ -9334,14 +9334,14 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>PgDODA</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>35194</v>
+        <v>35139</v>
       </c>
       <c r="D416" t="n">
-        <v>35203</v>
+        <v>35145</v>
       </c>
       <c r="E416" t="inlineStr"/>
     </row>
@@ -9357,10 +9357,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>35264</v>
+        <v>35194</v>
       </c>
       <c r="D417" t="n">
-        <v>35273</v>
+        <v>35203</v>
       </c>
       <c r="E417" t="inlineStr"/>
     </row>
@@ -9372,58 +9372,58 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>dodaalpha1</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>35324</v>
+        <v>35264</v>
       </c>
       <c r="D418" t="n">
-        <v>35334</v>
+        <v>35273</v>
       </c>
       <c r="E418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>dodaalpha1</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>35406</v>
+        <v>35324</v>
       </c>
       <c r="D419" t="n">
-        <v>35412</v>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>35334</v>
+      </c>
+      <c r="E419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>35451</v>
+        <v>35406</v>
       </c>
       <c r="D420" t="n">
-        <v>35455</v>
-      </c>
-      <c r="E420" t="inlineStr"/>
+        <v>35412</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -9437,35 +9437,31 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>35530</v>
+        <v>35451</v>
       </c>
       <c r="D421" t="n">
-        <v>35534</v>
+        <v>35455</v>
       </c>
       <c r="E421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>35570</v>
+        <v>35530</v>
       </c>
       <c r="D422" t="n">
-        <v>35578</v>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>35534</v>
+      </c>
+      <c r="E422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -9475,62 +9471,62 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>35640</v>
+        <v>35570</v>
       </c>
       <c r="D423" t="n">
-        <v>35646</v>
+        <v>35578</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>CHEMONTID:0001435</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>35664</v>
+        <v>35640</v>
       </c>
       <c r="D424" t="n">
-        <v>35668</v>
-      </c>
-      <c r="E424" t="inlineStr"/>
+        <v>35646</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>anthocyanin</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>36187</v>
+        <v>35664</v>
       </c>
       <c r="D425" t="n">
-        <v>36198</v>
-      </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001361</t>
-        </is>
-      </c>
+        <v>35668</v>
+      </c>
+      <c r="E425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -9540,62 +9536,62 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>anthocyanin</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>36206</v>
+        <v>36187</v>
       </c>
       <c r="D426" t="n">
-        <v>36214</v>
+        <v>36198</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CHEMONTID:0001435</t>
+          <t>CHEMONTID:0001361</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>36302</v>
+        <v>36206</v>
       </c>
       <c r="D427" t="n">
-        <v>36306</v>
-      </c>
-      <c r="E427" t="inlineStr"/>
+        <v>36214</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>beta vulgaris</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>36563</v>
+        <v>36302</v>
       </c>
       <c r="D428" t="n">
-        <v>36576</v>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>161934</t>
-        </is>
-      </c>
+        <v>36306</v>
+      </c>
+      <c r="E428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -9605,18 +9601,18 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>carnegiea gigantea</t>
+          <t>beta vulgaris</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>36582</v>
+        <v>36563</v>
       </c>
       <c r="D429" t="n">
-        <v>36600</v>
+        <v>36576</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>171969</t>
+          <t>161934</t>
         </is>
       </c>
     </row>
@@ -9628,18 +9624,18 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Cardionema ramosissimum</t>
+          <t>carnegiea gigantea</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>36606</v>
+        <v>36582</v>
       </c>
       <c r="D430" t="n">
-        <v>36629</v>
+        <v>36600</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>308177</t>
+          <t>171969</t>
         </is>
       </c>
     </row>
@@ -9651,18 +9647,18 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Dianthus superbus</t>
+          <t>Cardionema ramosissimum</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>36635</v>
+        <v>36606</v>
       </c>
       <c r="D431" t="n">
-        <v>36652</v>
+        <v>36629</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>288950</t>
+          <t>308177</t>
         </is>
       </c>
     </row>
@@ -9674,18 +9670,18 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Kewa caespitosa</t>
+          <t>Dianthus superbus</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>36658</v>
+        <v>36635</v>
       </c>
       <c r="D432" t="n">
-        <v>36673</v>
+        <v>36652</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2086541</t>
+          <t>288950</t>
         </is>
       </c>
     </row>
@@ -9697,18 +9693,18 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Limeum aethiopicum</t>
+          <t>Kewa caespitosa</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>36679</v>
+        <v>36658</v>
       </c>
       <c r="D433" t="n">
-        <v>36697</v>
+        <v>36673</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>115627</t>
+          <t>2086541</t>
         </is>
       </c>
     </row>
@@ -9720,18 +9716,18 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>mesembryanthemum crystallinum</t>
+          <t>Limeum aethiopicum</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>36703</v>
+        <v>36679</v>
       </c>
       <c r="D434" t="n">
-        <v>36732</v>
+        <v>36697</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>115627</t>
         </is>
       </c>
     </row>
@@ -9743,18 +9739,18 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Macarthuria australis</t>
+          <t>mesembryanthemum crystallinum</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>36738</v>
+        <v>36703</v>
       </c>
       <c r="D435" t="n">
-        <v>36759</v>
+        <v>36732</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>764202</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
@@ -9766,18 +9762,18 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Mirabilis jalapa</t>
+          <t>Macarthuria australis</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>36765</v>
+        <v>36738</v>
       </c>
       <c r="D436" t="n">
-        <v>36781</v>
+        <v>36759</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>3538</t>
+          <t>764202</t>
         </is>
       </c>
     </row>
@@ -9789,18 +9785,18 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Portulaca grandiflora</t>
+          <t>Mirabilis jalapa</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>36787</v>
+        <v>36765</v>
       </c>
       <c r="D437" t="n">
-        <v>36808</v>
+        <v>36781</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>3583</t>
+          <t>3538</t>
         </is>
       </c>
     </row>
@@ -9812,18 +9808,18 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Parakeelya mirabilis</t>
+          <t>Portulaca grandiflora</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>36837</v>
+        <v>36787</v>
       </c>
       <c r="D438" t="n">
-        <v>36857</v>
+        <v>36808</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>1548798</t>
+          <t>3583</t>
         </is>
       </c>
     </row>
@@ -9835,18 +9831,18 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Polycarpon tetraphyllum</t>
+          <t>Parakeelya mirabilis</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>36863</v>
+        <v>36837</v>
       </c>
       <c r="D439" t="n">
-        <v>36886</v>
+        <v>36857</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>115622</t>
+          <t>1548798</t>
         </is>
       </c>
     </row>
@@ -9858,18 +9854,18 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>stegnosperma halimifolium</t>
+          <t>Polycarpon tetraphyllum</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>36892</v>
+        <v>36863</v>
       </c>
       <c r="D440" t="n">
-        <v>36917</v>
+        <v>36886</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>3535</t>
+          <t>115622</t>
         </is>
       </c>
     </row>
@@ -9881,18 +9877,18 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Spergularia marina</t>
+          <t>stegnosperma halimifolium</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>36923</v>
+        <v>36892</v>
       </c>
       <c r="D441" t="n">
-        <v>36941</v>
+        <v>36917</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>191669</t>
+          <t>3535</t>
         </is>
       </c>
     </row>
@@ -9904,85 +9900,89 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Telephium imperati</t>
+          <t>Spergularia marina</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>36947</v>
+        <v>36923</v>
       </c>
       <c r="D442" t="n">
-        <v>36965</v>
+        <v>36941</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>645216</t>
+          <t>191669</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>Telephium imperati</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>37181</v>
+        <v>36947</v>
       </c>
       <c r="D443" t="n">
-        <v>37187</v>
+        <v>36965</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>645216</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C444" t="n">
         <v>37181</v>
       </c>
       <c r="D444" t="n">
-        <v>37212</v>
+        <v>37187</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>37319</v>
+        <v>37181</v>
       </c>
       <c r="D445" t="n">
-        <v>37323</v>
-      </c>
-      <c r="E445" t="inlineStr"/>
+        <v>37212</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>GO:0051213</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -9992,14 +9992,14 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>doda alpha</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C446" t="n">
         <v>37319</v>
       </c>
       <c r="D446" t="n">
-        <v>37329</v>
+        <v>37323</v>
       </c>
       <c r="E446" t="inlineStr"/>
     </row>
@@ -10011,39 +10011,35 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>doda alpha</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>37418</v>
+        <v>37319</v>
       </c>
       <c r="D447" t="n">
-        <v>37427</v>
+        <v>37329</v>
       </c>
       <c r="E447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>37593</v>
+        <v>37418</v>
       </c>
       <c r="D448" t="n">
-        <v>37608</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>3544</t>
-        </is>
-      </c>
+        <v>37427</v>
+      </c>
+      <c r="E448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -10053,39 +10049,43 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>c. gigantea</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>37613</v>
+        <v>37593</v>
       </c>
       <c r="D449" t="n">
-        <v>37624</v>
+        <v>37608</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>171969</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>c. gigantea</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>37639</v>
+        <v>37613</v>
       </c>
       <c r="D450" t="n">
-        <v>37648</v>
-      </c>
-      <c r="E450" t="inlineStr"/>
+        <v>37624</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>171969</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -10099,77 +10099,73 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>37780</v>
+        <v>37639</v>
       </c>
       <c r="D451" t="n">
-        <v>37789</v>
+        <v>37648</v>
       </c>
       <c r="E451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>37905</v>
+        <v>37780</v>
       </c>
       <c r="D452" t="n">
-        <v>37913</v>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>37789</v>
+      </c>
+      <c r="E452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>37924</v>
+        <v>37905</v>
       </c>
       <c r="D453" t="n">
-        <v>37933</v>
-      </c>
-      <c r="E453" t="inlineStr"/>
+        <v>37913</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>37995</v>
+        <v>37924</v>
       </c>
       <c r="D454" t="n">
-        <v>38010</v>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>3544</t>
-        </is>
-      </c>
+        <v>37933</v>
+      </c>
+      <c r="E454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -10179,39 +10175,43 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>c. gigantea</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>38015</v>
+        <v>37995</v>
       </c>
       <c r="D455" t="n">
-        <v>38026</v>
+        <v>38010</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>171969</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>c. gigantea</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>38041</v>
+        <v>38015</v>
       </c>
       <c r="D456" t="n">
-        <v>38050</v>
-      </c>
-      <c r="E456" t="inlineStr"/>
+        <v>38026</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>171969</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -10225,10 +10225,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>38070</v>
+        <v>38041</v>
       </c>
       <c r="D457" t="n">
-        <v>38079</v>
+        <v>38050</v>
       </c>
       <c r="E457" t="inlineStr"/>
     </row>
@@ -10244,54 +10244,54 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>38194</v>
+        <v>38070</v>
       </c>
       <c r="D458" t="n">
-        <v>38203</v>
+        <v>38079</v>
       </c>
       <c r="E458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>38472</v>
+        <v>38194</v>
       </c>
       <c r="D459" t="n">
-        <v>38478</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>38203</v>
+      </c>
+      <c r="E459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>38496</v>
+        <v>38472</v>
       </c>
       <c r="D460" t="n">
-        <v>38500</v>
-      </c>
-      <c r="E460" t="inlineStr"/>
+        <v>38478</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -10305,77 +10305,77 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>38556</v>
+        <v>38496</v>
       </c>
       <c r="D461" t="n">
-        <v>38560</v>
+        <v>38500</v>
       </c>
       <c r="E461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>38575</v>
+        <v>38556</v>
       </c>
       <c r="D462" t="n">
-        <v>38581</v>
-      </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>38560</v>
+      </c>
+      <c r="E462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C463" t="n">
         <v>38575</v>
       </c>
       <c r="D463" t="n">
-        <v>38606</v>
+        <v>38581</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>shdodaalpha1</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>38825</v>
+        <v>38575</v>
       </c>
       <c r="D464" t="n">
-        <v>38837</v>
-      </c>
-      <c r="E464" t="inlineStr"/>
+        <v>38606</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>GO:0051213</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -10385,14 +10385,14 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ShDODAalpha2</t>
+          <t>shdodaalpha1</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>38841</v>
+        <v>38825</v>
       </c>
       <c r="D465" t="n">
-        <v>38853</v>
+        <v>38837</v>
       </c>
       <c r="E465" t="inlineStr"/>
     </row>
@@ -10404,14 +10404,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CqDODA-1</t>
+          <t>ShDODAalpha2</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>38879</v>
+        <v>38841</v>
       </c>
       <c r="D466" t="n">
-        <v>38887</v>
+        <v>38853</v>
       </c>
       <c r="E466" t="inlineStr"/>
     </row>
@@ -10423,14 +10423,14 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>bvdodaalpha1</t>
+          <t>CqDODA-1</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>38889</v>
+        <v>38879</v>
       </c>
       <c r="D467" t="n">
-        <v>38901</v>
+        <v>38887</v>
       </c>
       <c r="E467" t="inlineStr"/>
     </row>
@@ -10442,14 +10442,14 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>PhybDODAalpha</t>
+          <t>bvdodaalpha1</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>38905</v>
+        <v>38889</v>
       </c>
       <c r="D468" t="n">
-        <v>38918</v>
+        <v>38901</v>
       </c>
       <c r="E468" t="inlineStr"/>
     </row>
@@ -10461,14 +10461,14 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>bvdodaalpha2</t>
+          <t>PhybDODAalpha</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>38920</v>
+        <v>38905</v>
       </c>
       <c r="D469" t="n">
-        <v>38932</v>
+        <v>38918</v>
       </c>
       <c r="E469" t="inlineStr"/>
     </row>
@@ -10480,14 +10480,14 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>BvDODAalpha2-5</t>
+          <t>bvdodaalpha2</t>
         </is>
       </c>
       <c r="C470" t="n">
         <v>38920</v>
       </c>
       <c r="D470" t="n">
-        <v>38934</v>
+        <v>38932</v>
       </c>
       <c r="E470" t="inlineStr"/>
     </row>
@@ -10499,14 +10499,14 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>mcdodaalpha1</t>
+          <t>BvDODAalpha2-5</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>38955</v>
+        <v>38920</v>
       </c>
       <c r="D471" t="n">
-        <v>38967</v>
+        <v>38934</v>
       </c>
       <c r="E471" t="inlineStr"/>
     </row>
@@ -10518,14 +10518,14 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>cgdodaalpha1</t>
+          <t>mcdodaalpha1</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>38983</v>
+        <v>38955</v>
       </c>
       <c r="D472" t="n">
-        <v>38995</v>
+        <v>38967</v>
       </c>
       <c r="E472" t="inlineStr"/>
     </row>
@@ -10537,14 +10537,14 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>McDODAalpha2</t>
+          <t>cgdodaalpha1</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>39013</v>
+        <v>38983</v>
       </c>
       <c r="D473" t="n">
-        <v>39025</v>
+        <v>38995</v>
       </c>
       <c r="E473" t="inlineStr"/>
     </row>
@@ -10556,14 +10556,14 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>CgDODAalpha2</t>
+          <t>McDODAalpha2</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>39041</v>
+        <v>39013</v>
       </c>
       <c r="D474" t="n">
-        <v>39053</v>
+        <v>39025</v>
       </c>
       <c r="E474" t="inlineStr"/>
     </row>
@@ -10575,39 +10575,35 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>doda</t>
+          <t>CgDODAalpha2</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>39267</v>
+        <v>39041</v>
       </c>
       <c r="D475" t="n">
-        <v>39271</v>
+        <v>39053</v>
       </c>
       <c r="E475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>doda</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>40246</v>
+        <v>39267</v>
       </c>
       <c r="D476" t="n">
-        <v>40254</v>
-      </c>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>39271</v>
+      </c>
+      <c r="E476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -10617,14 +10613,14 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>betalains</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>40424</v>
+        <v>40246</v>
       </c>
       <c r="D477" t="n">
-        <v>40433</v>
+        <v>40254</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -10640,14 +10636,14 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>betalains</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>40535</v>
+        <v>40424</v>
       </c>
       <c r="D478" t="n">
-        <v>40543</v>
+        <v>40433</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -10658,92 +10654,92 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>plant_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>betalain pigmentation</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C479" t="n">
         <v>40535</v>
       </c>
       <c r="D479" t="n">
-        <v>40556</v>
+        <v>40543</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>TO:0000494</t>
+          <t>CHEMONTID:0001435</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>plant_traits</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>betalain pigmentation</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>40633</v>
+        <v>40535</v>
       </c>
       <c r="D480" t="n">
-        <v>40641</v>
+        <v>40556</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>CHEMONTID:0001435</t>
+          <t>TO:0000494</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>plant_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>betalain pigmentation</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C481" t="n">
         <v>40633</v>
       </c>
       <c r="D481" t="n">
-        <v>40654</v>
+        <v>40641</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>TO:0000494</t>
+          <t>CHEMONTID:0001435</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>plant_traits</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>s. halimifolium</t>
+          <t>betalain pigmentation</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>40764</v>
+        <v>40633</v>
       </c>
       <c r="D482" t="n">
-        <v>40779</v>
+        <v>40654</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>3535</t>
+          <t>TO:0000494</t>
         </is>
       </c>
     </row>
@@ -10755,18 +10751,18 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>b. vulgaris</t>
+          <t>s. halimifolium</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>40781</v>
+        <v>40764</v>
       </c>
       <c r="D483" t="n">
-        <v>40792</v>
+        <v>40779</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>161934</t>
+          <t>3535</t>
         </is>
       </c>
     </row>
@@ -10778,18 +10774,18 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>m. crystallinum</t>
+          <t>b. vulgaris</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>40794</v>
+        <v>40781</v>
       </c>
       <c r="D484" t="n">
-        <v>40809</v>
+        <v>40792</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>161934</t>
         </is>
       </c>
     </row>
@@ -10801,150 +10797,150 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>c. gigantea</t>
+          <t>m. crystallinum</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>40814</v>
+        <v>40794</v>
       </c>
       <c r="D485" t="n">
-        <v>40825</v>
+        <v>40809</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>171969</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>experimental_conditions</t>
+          <t>species</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>heterologous transient assays</t>
+          <t>c. gigantea</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>40833</v>
+        <v>40814</v>
       </c>
       <c r="D486" t="n">
-        <v>40862</v>
-      </c>
-      <c r="E486" t="inlineStr"/>
+        <v>40825</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>171969</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>experimental_conditions</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>heterologous transient assays</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>40895</v>
+        <v>40833</v>
       </c>
       <c r="D487" t="n">
-        <v>40901</v>
-      </c>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>40862</v>
+      </c>
+      <c r="E487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C488" t="n">
         <v>40895</v>
       </c>
       <c r="D488" t="n">
-        <v>40926</v>
+        <v>40901</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>betanin</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>40949</v>
+        <v>40895</v>
       </c>
       <c r="D489" t="n">
-        <v>40956</v>
+        <v>40926</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>6540685</t>
+          <t>GO:0051213</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>dodabeta</t>
+          <t>betanin</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>41030</v>
+        <v>40949</v>
       </c>
       <c r="D490" t="n">
-        <v>41038</v>
-      </c>
-      <c r="E490" t="inlineStr"/>
+        <v>40956</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>6540685</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>dodabeta</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>41049</v>
+        <v>41030</v>
       </c>
       <c r="D491" t="n">
-        <v>41057</v>
-      </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>41038</v>
+      </c>
+      <c r="E491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -10954,104 +10950,108 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>41136</v>
+        <v>41049</v>
       </c>
       <c r="D492" t="n">
-        <v>41142</v>
+        <v>41057</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>CHEMONTID:0001435</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C493" t="n">
         <v>41136</v>
       </c>
       <c r="D493" t="n">
-        <v>41167</v>
+        <v>41142</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>41199</v>
+        <v>41136</v>
       </c>
       <c r="D494" t="n">
-        <v>41208</v>
-      </c>
-      <c r="E494" t="inlineStr"/>
+        <v>41167</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>GO:0051213</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>41263</v>
+        <v>41199</v>
       </c>
       <c r="D495" t="n">
-        <v>41271</v>
-      </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>CHEMONTID:0001435</t>
-        </is>
-      </c>
+        <v>41208</v>
+      </c>
+      <c r="E495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>41318</v>
+        <v>41263</v>
       </c>
       <c r="D496" t="n">
-        <v>41327</v>
-      </c>
-      <c r="E496" t="inlineStr"/>
+        <v>41271</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -11065,165 +11065,165 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>41353</v>
+        <v>41318</v>
       </c>
       <c r="D497" t="n">
-        <v>41362</v>
+        <v>41327</v>
       </c>
       <c r="E497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>41427</v>
+        <v>41353</v>
       </c>
       <c r="D498" t="n">
-        <v>41433</v>
-      </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>41362</v>
+      </c>
+      <c r="E498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C499" t="n">
         <v>41427</v>
       </c>
       <c r="D499" t="n">
-        <v>41458</v>
+        <v>41433</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>betalain</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>41464</v>
+        <v>41427</v>
       </c>
       <c r="D500" t="n">
-        <v>41472</v>
+        <v>41458</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CHEMONTID:0001435</t>
+          <t>GO:0051213</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>betalain</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>41504</v>
+        <v>41464</v>
       </c>
       <c r="D501" t="n">
-        <v>41513</v>
-      </c>
-      <c r="E501" t="inlineStr"/>
+        <v>41472</v>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>CHEMONTID:0001435</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>l-dopa</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>41550</v>
+        <v>41504</v>
       </c>
       <c r="D502" t="n">
-        <v>41556</v>
-      </c>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>6047</t>
-        </is>
-      </c>
+        <v>41513</v>
+      </c>
+      <c r="E502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>molecular_traits</t>
+          <t>compounds</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>l-dopa 4,5-dioxygenase activity</t>
+          <t>l-dopa</t>
         </is>
       </c>
       <c r="C503" t="n">
         <v>41550</v>
       </c>
       <c r="D503" t="n">
-        <v>41581</v>
+        <v>41556</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>GO:0051213</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>genes</t>
+          <t>molecular_traits</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>dodaalpha</t>
+          <t>l-dopa 4,5-dioxygenase activity</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>41718</v>
+        <v>41550</v>
       </c>
       <c r="D504" t="n">
-        <v>41727</v>
-      </c>
-      <c r="E504" t="inlineStr"/>
+        <v>41581</v>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>GO:0051213</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -11237,35 +11237,31 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>41796</v>
+        <v>41718</v>
       </c>
       <c r="D505" t="n">
-        <v>41805</v>
+        <v>41727</v>
       </c>
       <c r="E505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>compounds</t>
+          <t>genes</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>protocatechuate</t>
+          <t>dodaalpha</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>41871</v>
+        <v>41796</v>
       </c>
       <c r="D506" t="n">
-        <v>41886</v>
-      </c>
-      <c r="E506" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+        <v>41805</v>
+      </c>
+      <c r="E506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
